--- a/data-model/sdr-release-V2.0.1/ddf-sdr-usdm-conformance-rules-V2.0.xlsx
+++ b/data-model/sdr-release-V2.0.1/ddf-sdr-usdm-conformance-rules-V2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswesh.mb\Desktop\ToBeUploaded\API_Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\viswesh.mb\source\repos\Sprint 29\data-model\sdr-release-V2.0.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB4DAC0-2A1E-4B4B-81E7-BB3C03D99271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A326BE57-F8AF-4B64-B657-FFA54BAC365A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{A3ACD5DA-FA69-451A-83B4-E2EA342D7D58}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{A3ACD5DA-FA69-451A-83B4-E2EA342D7D58}"/>
   </bookViews>
   <sheets>
     <sheet name="DataDictionary" sheetId="1" state="hidden" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Common" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StudyLevel!$A$1:$E$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">StudyLevel!$A$1:$E$142</definedName>
     <definedName name="_GoBack" localSheetId="1">Disclaimer!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4017" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4046" uniqueCount="490">
   <si>
     <t>TABLE_CATALOG</t>
   </si>
@@ -789,9 +789,6 @@
     <t>studyDesignDescription</t>
   </si>
   <si>
-    <t>trialIntentType</t>
-  </si>
-  <si>
     <t>trialType</t>
   </si>
   <si>
@@ -1077,21 +1074,12 @@
     <t>Cross-Reference to ScheduleTimelineExit</t>
   </si>
   <si>
-    <t>scheduledInstanceEncounterId</t>
-  </si>
-  <si>
-    <t>Cross-Reference to Encounter</t>
-  </si>
-  <si>
     <t>scheduledInstanceTimings</t>
   </si>
   <si>
     <t>List&lt;Timing&gt;</t>
   </si>
   <si>
-    <t>scheduleInstanceTimelineId</t>
-  </si>
-  <si>
     <t>Cross-Reference to ScheduledTimeline</t>
   </si>
   <si>
@@ -1146,9 +1134,6 @@
     <t>ScheduleTimelineExit</t>
   </si>
   <si>
-    <t>exitId</t>
-  </si>
-  <si>
     <t>Activity</t>
   </si>
   <si>
@@ -1284,12 +1269,6 @@
     <t>biomedicalConceptCategoryId</t>
   </si>
   <si>
-    <t>bcCategoryParentIds</t>
-  </si>
-  <si>
-    <t>bcCategoryChildrenIds</t>
-  </si>
-  <si>
     <t>bcCategoryName</t>
   </si>
   <si>
@@ -1299,33 +1278,6 @@
     <t>bcCategoryMemberIds</t>
   </si>
   <si>
-    <t>biomedicalConceptProperty</t>
-  </si>
-  <si>
-    <t>bcPropertyId</t>
-  </si>
-  <si>
-    <t>bcPropertyName</t>
-  </si>
-  <si>
-    <t>bcPropertyRequired</t>
-  </si>
-  <si>
-    <t>bcPropertyEnabled</t>
-  </si>
-  <si>
-    <t>bcPropertyDatatype</t>
-  </si>
-  <si>
-    <t>bcPropertyResponseCodes</t>
-  </si>
-  <si>
-    <t>List&lt;responseCode&gt;</t>
-  </si>
-  <si>
-    <t>bcPropertyConceptCode</t>
-  </si>
-  <si>
     <t>biomedicalConceptSurrogate</t>
   </si>
   <si>
@@ -1434,12 +1386,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>scheduleSequenceNumber</t>
-  </si>
-  <si>
-    <t>scheduleTimelineInstances</t>
-  </si>
-  <si>
     <t>Cross-Reference to biomedicalConcept</t>
   </si>
   <si>
@@ -1450,9 +1396,6 @@
   </si>
   <si>
     <t>Cross-Reference to ScheduleTimeline</t>
-  </si>
-  <si>
-    <t>Cross-Reference to encounters defined at studyDesign Level</t>
   </si>
   <si>
     <t>Cross-Reference to InvestigationalIntervention</t>
@@ -1480,12 +1423,114 @@
   <si>
     <t>TransCelerate does not endorse any particular software, system, or service.  And the use of specific brands of products or services by TransCelerate and its collaboration partners in developing the SDR Reference Implementation should not be viewed as any endorsement of such products or services.  To the extent that the SDR Reference Implementation incorporates or relies on any specific branded products or services, this resulted out of the practical necessities associated with making a reference implementation available to demonstrate the SDR’s capabilities.</t>
   </si>
+  <si>
+    <t>trialIntentTypes</t>
+  </si>
+  <si>
+    <t>studyArms</t>
+  </si>
+  <si>
+    <t>List&lt;studyArm&gt;</t>
+  </si>
+  <si>
+    <t>studyEpochs</t>
+  </si>
+  <si>
+    <t>List&lt;studyEpoch&gt;</t>
+  </si>
+  <si>
+    <t>mainTimeline</t>
+  </si>
+  <si>
+    <t>scheduledTimelineInstances</t>
+  </si>
+  <si>
+    <t>scheduledInstanceTimelineId</t>
+  </si>
+  <si>
+    <t>defaultConditionId</t>
+  </si>
+  <si>
+    <t>epochId</t>
+  </si>
+  <si>
+    <t>scheduledActivityInstanceEncounterId</t>
+  </si>
+  <si>
+    <t>timingDescription</t>
+  </si>
+  <si>
+    <t>timingWindowLower</t>
+  </si>
+  <si>
+    <t>timingWindowUpper</t>
+  </si>
+  <si>
+    <t>procedureName</t>
+  </si>
+  <si>
+    <t>procedureDescription</t>
+  </si>
+  <si>
+    <t>bcCategoryCode</t>
+  </si>
+  <si>
+    <t>New Property added, non-mandatory (This field should be used to identify the sorting order for timingWindow under a particular Encounter) Cross Reference to one of the scheduleInstanceId of same scheduleTimeline. It should not refer same scheduledInstanceId</t>
+  </si>
+  <si>
+    <t>Cross Reference to StudyEpochs</t>
+  </si>
+  <si>
+    <t>Cross reference to studyArms under studyDesign</t>
+  </si>
+  <si>
+    <t>Cross reference to studyElements under studyDesign</t>
+  </si>
+  <si>
+    <t>Cross reference to studyEpochs under studyDesign</t>
+  </si>
+  <si>
+    <t>studyElementIds</t>
+  </si>
+  <si>
+    <t>Will be considered when scheduledInstanceType = ACTIVITY &amp; Cross-Reference to Encounters</t>
+  </si>
+  <si>
+    <t>bcCategoryChildIds</t>
+  </si>
+  <si>
+    <t>biomedicalConceptProperty</t>
+  </si>
+  <si>
+    <t>bcPropertyId</t>
+  </si>
+  <si>
+    <t>bcPropertyName</t>
+  </si>
+  <si>
+    <t>bcPropertyRequired</t>
+  </si>
+  <si>
+    <t>bcPropertyEnabled</t>
+  </si>
+  <si>
+    <t>bcPropertyDatatype</t>
+  </si>
+  <si>
+    <t>bcPropertyResponseCodes</t>
+  </si>
+  <si>
+    <t>List&lt;responseCode&gt;</t>
+  </si>
+  <si>
+    <t>bcPropertyConceptCode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1510,26 +1555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="12"/>
@@ -1549,8 +1574,23 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1573,6 +1613,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1669,7 +1715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1686,63 +1732,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1759,18 +1804,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2100,34 +2133,34 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="25" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5703125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="23.88671875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="21.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="14.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2269,7 +2302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2340,7 +2373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2411,7 +2444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2482,7 +2515,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2553,7 +2586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -2624,7 +2657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2695,7 +2728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2766,7 +2799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2837,7 +2870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2908,7 +2941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2979,7 +3012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3050,7 +3083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3121,7 +3154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3192,7 +3225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3263,7 +3296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3334,7 +3367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3405,7 +3438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3476,7 +3509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3547,7 +3580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3618,7 +3651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3689,7 +3722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3760,7 +3793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3831,7 +3864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3902,7 +3935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3973,7 +4006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4044,7 +4077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -4115,7 +4148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4186,7 +4219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -4257,7 +4290,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -4328,7 +4361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -4399,7 +4432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -4470,7 +4503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -4541,7 +4574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -4612,7 +4645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -4683,7 +4716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -4754,7 +4787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -4825,7 +4858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -4896,7 +4929,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -4967,7 +5000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -5038,7 +5071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -5109,7 +5142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -5180,7 +5213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -5251,7 +5284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -5322,7 +5355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -5393,7 +5426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -5464,7 +5497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -5535,7 +5568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -5606,7 +5639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -5677,7 +5710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -5748,7 +5781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -5819,7 +5852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -5890,7 +5923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -5961,7 +5994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -6032,7 +6065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -6103,7 +6136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -6174,7 +6207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -6245,7 +6278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -6316,7 +6349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -6387,7 +6420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -6458,7 +6491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -6529,7 +6562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -6600,7 +6633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -6671,7 +6704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -6742,7 +6775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -6813,7 +6846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -6884,7 +6917,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -6955,7 +6988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -7026,7 +7059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -7097,7 +7130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -7168,7 +7201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -7239,7 +7272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -7310,7 +7343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -7381,7 +7414,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -7452,7 +7485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -7523,7 +7556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -7594,7 +7627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -7665,7 +7698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -7736,7 +7769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -7807,7 +7840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -7878,7 +7911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>23</v>
       </c>
@@ -7949,7 +7982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -8020,7 +8053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -8091,7 +8124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -8162,7 +8195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -8233,7 +8266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -8304,7 +8337,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -8375,7 +8408,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -8446,7 +8479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -8517,7 +8550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -8588,7 +8621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -8659,7 +8692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -8730,7 +8763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -8801,7 +8834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -8872,7 +8905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -8943,7 +8976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -9014,7 +9047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -9085,7 +9118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -9156,7 +9189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -9227,7 +9260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -9298,7 +9331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -9369,7 +9402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -9440,7 +9473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -9511,7 +9544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -9582,7 +9615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -9653,7 +9686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -9724,7 +9757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -9795,7 +9828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -9866,7 +9899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -9937,7 +9970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -10008,7 +10041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -10079,7 +10112,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -10150,7 +10183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -10221,7 +10254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -10292,7 +10325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -10363,7 +10396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -10434,7 +10467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>23</v>
       </c>
@@ -10505,7 +10538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -10576,7 +10609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -10647,7 +10680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -10718,7 +10751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -10789,7 +10822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -10860,7 +10893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -10931,7 +10964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -11002,7 +11035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -11073,7 +11106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>23</v>
       </c>
@@ -11144,7 +11177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -11215,7 +11248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -11286,7 +11319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -11357,7 +11390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -11428,7 +11461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -11499,7 +11532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -11570,7 +11603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -11641,7 +11674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -11712,7 +11745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>23</v>
       </c>
@@ -11783,7 +11816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -11854,7 +11887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -11925,7 +11958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>23</v>
       </c>
@@ -11996,7 +12029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -12067,7 +12100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -12138,7 +12171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -12209,7 +12242,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>23</v>
       </c>
@@ -12280,7 +12313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -12351,7 +12384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -12422,7 +12455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>23</v>
       </c>
@@ -12493,7 +12526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -12564,7 +12597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -12635,7 +12668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>23</v>
       </c>
@@ -12706,7 +12739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>23</v>
       </c>
@@ -12777,7 +12810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>23</v>
       </c>
@@ -12848,7 +12881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -12919,7 +12952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -12990,7 +13023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>23</v>
       </c>
@@ -13061,7 +13094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -13132,7 +13165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -13203,7 +13236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -13274,7 +13307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -13345,7 +13378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>23</v>
       </c>
@@ -13416,7 +13449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -13487,7 +13520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>23</v>
       </c>
@@ -13558,7 +13591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>23</v>
       </c>
@@ -13639,28 +13672,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FB8902-18F2-4079-8CC9-5E87F43DA45D}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="125.28515625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="125.33203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="75.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>474</v>
+    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="75.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="75" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -13671,27 +13704,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99043BE-1430-4060-BF1C-96B02CFC8CED}">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.28515625" bestFit="1" customWidth="1"/>
-    <col min="16382" max="16382" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="83.33203125" bestFit="1" customWidth="1"/>
+    <col min="16382" max="16382" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="8" t="s">
         <v>200</v>
       </c>
@@ -13702,2342 +13735,2465 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="21" t="s">
         <v>204</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="21" t="s">
         <v>207</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="9" t="s">
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="29"/>
+      <c r="B10" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="9" t="s">
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="30"/>
+      <c r="B11" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="9" t="s">
+      <c r="E12" s="21"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="9" t="s">
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="9" t="s">
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="9" t="s">
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="9" t="s">
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="9" t="s">
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="29"/>
+      <c r="B21" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="9" t="s">
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="9" t="s">
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="9" t="s">
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="9" t="s">
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="9" t="s">
+      <c r="E25" s="21"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="9" t="s">
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="29"/>
+      <c r="B27" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="9" t="s">
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="29"/>
+      <c r="B33" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D34" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="29"/>
+      <c r="B35" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="29"/>
+      <c r="B37" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="29"/>
+      <c r="B41" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="29"/>
+      <c r="B42" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="21"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="29"/>
+      <c r="B43" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="21"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="29"/>
+      <c r="B44" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="29"/>
+      <c r="B45" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="21"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="29"/>
+      <c r="B46" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="29"/>
+      <c r="B47" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D47" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="29"/>
+      <c r="B48" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" s="21"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+      <c r="B49" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E49" s="21"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="29"/>
+      <c r="B50" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="21"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+      <c r="B51" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" s="21"/>
+    </row>
+    <row r="52" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
+      <c r="B52" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+      <c r="B53" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E53" s="21"/>
+    </row>
+    <row r="54" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="30"/>
+      <c r="B54" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E54" s="21"/>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="E55" s="21"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="29"/>
+      <c r="B56" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D56" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="E56" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="30"/>
+      <c r="B58" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D58" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="E58" s="21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29"/>
+      <c r="B60" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="21"/>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="29"/>
+      <c r="B61" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="29"/>
+      <c r="B62" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29"/>
+      <c r="B63" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="21"/>
+    </row>
+    <row r="64" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="30"/>
+      <c r="B64" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="21"/>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="21"/>
+    </row>
+    <row r="66" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="29"/>
+      <c r="B66" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E66" s="21"/>
+    </row>
+    <row r="67" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="29"/>
+      <c r="B67" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E67" s="21"/>
+    </row>
+    <row r="68" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="29"/>
+      <c r="B68" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="30"/>
+      <c r="B69" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="21"/>
+    </row>
+    <row r="70" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="21"/>
+    </row>
+    <row r="71" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="29"/>
+      <c r="B71" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" s="21"/>
+    </row>
+    <row r="72" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="29"/>
+      <c r="B72" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="21"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="29"/>
+      <c r="B73" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" s="21"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="29"/>
+      <c r="B74" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="29"/>
+      <c r="B75" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="21"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E76" s="21"/>
+    </row>
+    <row r="77" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="29"/>
+      <c r="B77" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E77" s="21"/>
+    </row>
+    <row r="78" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="30"/>
+      <c r="B78" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D78" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="E78" s="21"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" s="21"/>
+    </row>
+    <row r="80" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="29"/>
+      <c r="B80" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" s="21"/>
+    </row>
+    <row r="81" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="30"/>
+      <c r="B81" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D81" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="E81" s="21"/>
+    </row>
+    <row r="82" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" s="21"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="29"/>
+      <c r="B83" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E83" s="21"/>
+    </row>
+    <row r="84" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="29"/>
+      <c r="B84" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" s="21"/>
+    </row>
+    <row r="85" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="30"/>
+      <c r="B85" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="21"/>
+    </row>
+    <row r="86" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="21"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="29"/>
+      <c r="B87" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" s="21"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="29"/>
+      <c r="B88" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" s="21"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="30"/>
+      <c r="B89" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="21"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="29"/>
+      <c r="B91" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="29"/>
+      <c r="B92" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="21"/>
+    </row>
+    <row r="93" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="29"/>
+      <c r="B93" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="21"/>
+    </row>
+    <row r="94" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="29"/>
+      <c r="B94" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" s="21"/>
+    </row>
+    <row r="95" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="30"/>
+      <c r="B95" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C95" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D95" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="21"/>
+    </row>
+    <row r="96" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="E96" s="21"/>
+    </row>
+    <row r="97" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="26"/>
+      <c r="B97" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" s="21"/>
+    </row>
+    <row r="98" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="26"/>
+      <c r="B98" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D38" s="9" t="s">
+      <c r="E98" s="21"/>
+    </row>
+    <row r="99" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="26"/>
+      <c r="B99" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="21"/>
+    </row>
+    <row r="100" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="26"/>
+      <c r="B100" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="E100" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="26"/>
+      <c r="B101" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="E101" s="21"/>
+    </row>
+    <row r="102" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="26"/>
+      <c r="B102" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E102" s="21"/>
+    </row>
+    <row r="103" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="27"/>
+      <c r="B103" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="E103" s="21"/>
+    </row>
+    <row r="104" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="26"/>
+      <c r="B105" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="E105" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="26"/>
+      <c r="B106" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="D106" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="E106" s="21"/>
+    </row>
+    <row r="107" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="26"/>
+      <c r="B107" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="C107" s="21"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="21"/>
+    </row>
+    <row r="108" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="26"/>
+      <c r="B108" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D44" s="9" t="s">
+      <c r="E108" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="26"/>
+      <c r="B109" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="E109" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="26"/>
+      <c r="B110" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" s="21"/>
+    </row>
+    <row r="111" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="26"/>
+      <c r="B111" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D111" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="E111" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="26"/>
+      <c r="B112" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D112" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="E112" s="21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="27"/>
+      <c r="B113" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C114" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D114" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="E114" s="21"/>
+    </row>
+    <row r="115" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="26"/>
+      <c r="B115" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E115" s="21"/>
+    </row>
+    <row r="116" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="26"/>
+      <c r="B116" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E116" s="21"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="26"/>
+      <c r="B117" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D117" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" s="21"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="26"/>
+      <c r="B118" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E118" s="21"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="26"/>
+      <c r="B119" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E119" s="21"/>
+    </row>
+    <row r="120" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="26"/>
+      <c r="B120" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D120" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" s="21"/>
+    </row>
+    <row r="121" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="26"/>
+      <c r="B121" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" s="21"/>
+    </row>
+    <row r="122" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="26"/>
+      <c r="B122" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D122" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E122" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="27"/>
+      <c r="B123" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E123" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D124" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E124" s="21"/>
+    </row>
+    <row r="125" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E125" s="21"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="29"/>
+      <c r="B126" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E126" s="21"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="29"/>
+      <c r="B127" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E127" s="21"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="29"/>
+      <c r="B128" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E128" s="21"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="29"/>
+      <c r="B129" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E129" s="21"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="29"/>
+      <c r="B130" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E130" s="21"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="29"/>
+      <c r="B131" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E131" s="21"/>
+    </row>
+    <row r="132" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="29"/>
+      <c r="B132" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E132" s="21"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="29"/>
+      <c r="B133" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="29"/>
+      <c r="B134" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="29"/>
+      <c r="B135" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="30"/>
+      <c r="B136" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E137" s="21"/>
+    </row>
+    <row r="138" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="32"/>
+      <c r="B138" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E138" s="21"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="32"/>
+      <c r="B139" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E139" s="21"/>
+    </row>
+    <row r="140" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="32"/>
+      <c r="B140" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140" s="21"/>
+    </row>
+    <row r="141" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="32"/>
+      <c r="B141" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E141" s="21"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="32"/>
+      <c r="B142" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E142" s="21"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="33"/>
+      <c r="B143" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E143" s="21"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E144" s="21"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="32"/>
+      <c r="B145" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" s="21"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="32"/>
+      <c r="B146" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E146" s="21"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="32"/>
+      <c r="B147" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="32"/>
+      <c r="B148" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E148" s="21" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="33"/>
+      <c r="B149" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E149" s="21"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E150" s="21"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="30"/>
+      <c r="B151" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E151" s="21"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E152" s="21"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="29"/>
+      <c r="B153" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E153" s="21"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="29"/>
+      <c r="B154" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E154" s="21"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="30"/>
+      <c r="B155" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E155" s="21"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E156" s="21"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="26"/>
+      <c r="B157" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E157" s="21"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="26"/>
+      <c r="B158" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E158" s="21"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="26"/>
+      <c r="B159" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E159" s="21"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="26"/>
+      <c r="B160" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E160" s="21"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="27"/>
+      <c r="B161" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C161" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D161" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E161" s="21"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E162" s="21"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="26"/>
+      <c r="B163" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E163" s="21"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="26"/>
+      <c r="B164" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="C164" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E164" s="21"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="26"/>
+      <c r="B165" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D165" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E165" s="21"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="26"/>
+      <c r="B166" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D166" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E166" s="21"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="26"/>
+      <c r="B167" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C167" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="D167" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="E167" s="21"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="26"/>
+      <c r="B168" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="C168" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D168" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E168" s="21"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B169" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E169" s="21"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="26"/>
+      <c r="B170" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D170" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D50" s="7" t="s">
+      <c r="E170" s="21"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="26"/>
+      <c r="B171" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C171" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E171" s="21"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="26"/>
+      <c r="B172" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="C172" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D172" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="E172" s="21"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="26"/>
+      <c r="B173" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D173" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="E173" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="27"/>
+      <c r="B174" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E174" s="21"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="C175" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="D175" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E175" s="21"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="26"/>
+      <c r="B176" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C176" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D176" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E176" s="21"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="26"/>
+      <c r="B177" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C177" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D177" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C56" s="9" t="s">
+      <c r="E177" s="21"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="27"/>
+      <c r="B178" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C178" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="D178" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E178" s="21"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="B179" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="C179" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D179" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="E179" s="21"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="26"/>
+      <c r="B180" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="C180" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D180" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="E180" s="21"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="27"/>
+      <c r="B181" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C181" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D181" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="26"/>
-      <c r="B61" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="9"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="9"/>
-    </row>
-    <row r="63" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26"/>
-      <c r="B64" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="9"/>
-    </row>
-    <row r="65" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="26"/>
-      <c r="B69" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="26"/>
-      <c r="B70" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="26"/>
-      <c r="B71" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="26"/>
-      <c r="B72" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E76" s="9"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E78" s="9"/>
-    </row>
-    <row r="79" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="26"/>
-      <c r="B81" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26"/>
-      <c r="B82" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" s="9"/>
-    </row>
-    <row r="83" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="9"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E84" s="9"/>
-    </row>
-    <row r="85" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="26"/>
-      <c r="B85" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="26"/>
-      <c r="B86" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="26"/>
-      <c r="B87" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="26"/>
-      <c r="B89" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E89" s="9"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="26"/>
-      <c r="B90" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E90" s="9"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="26"/>
-      <c r="B91" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E91" s="9"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" s="9"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E93" s="9"/>
-    </row>
-    <row r="94" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="36"/>
-      <c r="B95" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E95" s="9"/>
-    </row>
-    <row r="96" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="36"/>
-      <c r="B96" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="36"/>
-      <c r="B97" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97" s="9"/>
-    </row>
-    <row r="98" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="36"/>
-      <c r="B98" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="36"/>
-      <c r="B99" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E99" s="9"/>
-    </row>
-    <row r="100" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="36"/>
-      <c r="B100" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E100" s="9"/>
-    </row>
-    <row r="101" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E101" s="9"/>
-    </row>
-    <row r="102" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="33"/>
-      <c r="B102" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
-      <c r="B103" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
-      <c r="B104" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E104" s="9"/>
-    </row>
-    <row r="105" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
-      <c r="B105" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E105" s="9"/>
-    </row>
-    <row r="106" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
-      <c r="B106" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="33"/>
-      <c r="B107" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E107" s="9"/>
-    </row>
-    <row r="108" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
-      <c r="B108" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33"/>
-      <c r="B109" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E110" s="9"/>
-    </row>
-    <row r="111" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33"/>
-      <c r="B111" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="33"/>
-      <c r="B113" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E113" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
-      <c r="B114" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
-      <c r="B115" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="35"/>
-      <c r="B116" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E117" s="9"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E118" s="9"/>
-    </row>
-    <row r="119" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C119" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E119" s="9"/>
-    </row>
-    <row r="120" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
-      <c r="B120" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E120" s="9"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
-      <c r="B121" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E121" s="9"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E122" s="9"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E123" s="9"/>
-    </row>
-    <row r="124" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E124" s="9"/>
-    </row>
-    <row r="125" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
-      <c r="B125" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E125" s="9"/>
-    </row>
-    <row r="126" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
-      <c r="B129" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E130" s="9"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="31"/>
-      <c r="B131" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
-      <c r="B132" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E132" s="9"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
-      <c r="B133" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E133" s="9"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
-      <c r="B134" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E134" s="9"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E135" s="9"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="30"/>
-      <c r="B136" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="30"/>
-      <c r="B137" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E137" s="9"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="30"/>
-      <c r="B138" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="30"/>
-      <c r="B139" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="30"/>
-      <c r="B140" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E140" s="16"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E141" s="9"/>
-    </row>
-    <row r="142" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="26"/>
-      <c r="B142" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E142" s="9"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E143" s="9"/>
-    </row>
-    <row r="144" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="26"/>
-      <c r="B144" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E144" s="9"/>
-    </row>
-    <row r="145" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="26"/>
-      <c r="B145" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E145" s="9"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="26"/>
-      <c r="B146" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E146" s="9"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="23" t="s">
-        <v>403</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E147" s="9"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="24"/>
-      <c r="B148" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E148" s="9"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="24"/>
-      <c r="B149" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E149" s="9"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="24"/>
-      <c r="B150" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E150" s="9"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="24"/>
-      <c r="B151" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E151" s="9"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="25"/>
-      <c r="B152" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E153" s="9"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="24"/>
-      <c r="B154" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E154" s="9"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="24"/>
-      <c r="B155" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E155" s="9"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="24"/>
-      <c r="B156" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E156" s="9"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="24"/>
-      <c r="B157" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E157" s="9"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="25"/>
-      <c r="B158" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E159" s="9"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="24"/>
-      <c r="B160" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E160" s="9"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="24"/>
-      <c r="B161" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E161" s="9"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="24"/>
-      <c r="B162" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E162" s="9"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="24"/>
-      <c r="B163" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E163" s="9"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="24"/>
-      <c r="B164" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E164" s="9"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="25"/>
-      <c r="B165" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E165" s="9"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E166" s="9"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="24"/>
-      <c r="B167" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E167" s="9"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="24"/>
-      <c r="B168" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="25"/>
-      <c r="B169" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E169" s="9"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E170" s="9"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="24"/>
-      <c r="B171" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E171" s="9"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="25"/>
-      <c r="B172" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E172" s="9"/>
+      <c r="E181" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A110:A116"/>
-    <mergeCell ref="A94:A100"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="A118:A129"/>
-    <mergeCell ref="A130:A134"/>
-    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A104:A113"/>
+    <mergeCell ref="A162:A168"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="A90:A95"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A70:A75"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A61"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A31:A51"/>
-    <mergeCell ref="A147:A152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A159:A165"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A31:A54"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A114:A123"/>
+    <mergeCell ref="A125:A136"/>
+    <mergeCell ref="A137:A143"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="A156:A161"/>
+    <mergeCell ref="A169:A174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16048,40 +16204,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E005F31D-5F18-4D53-AC21-42F2015A5297}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="B1" s="39"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="38"/>
       <c r="C1" s="2" t="s">
         <v>200</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>206</v>
@@ -16091,8 +16247,8 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
       <c r="B3" s="5" t="s">
         <v>85</v>
       </c>
@@ -16104,10 +16260,10 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
       <c r="B4" s="5" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>206</v>
@@ -16117,10 +16273,10 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
       <c r="B5" s="5" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>206</v>
@@ -16130,8 +16286,8 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
       <c r="B6" s="5" t="s">
         <v>88</v>
       </c>
@@ -16143,12 +16299,12 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>295</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>294</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>206</v>
@@ -16158,10 +16314,10 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
       <c r="B8" s="5" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>206</v>
@@ -16171,12 +16327,12 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>442</v>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>426</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>206</v>
@@ -16186,10 +16342,10 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
       <c r="B10" s="5" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>206</v>
@@ -16199,23 +16355,23 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
       <c r="B11" s="5" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>206</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
       <c r="B12" s="1" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>206</v>
@@ -16225,10 +16381,10 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
       <c r="B13" s="1" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>206</v>
@@ -16238,10 +16394,10 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
       <c r="B14" s="1" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>240</v>
@@ -16251,10 +16407,10 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
       <c r="B15" s="5" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>240</v>
@@ -16264,10 +16420,10 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
       <c r="B16" s="10" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>240</v>
@@ -16277,36 +16433,36 @@
       </c>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
       <c r="B17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
       <c r="B18" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>204</v>
       </c>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="40"/>
       <c r="B19" s="12" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>206</v>
@@ -16315,15 +16471,15 @@
         <v>204</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>453</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>437</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>206</v>
@@ -16331,12 +16487,12 @@
       <c r="D20" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
       <c r="B21" s="9" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>85</v>
@@ -16344,23 +16500,23 @@
       <c r="D21" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="C22" s="19" t="s">
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>225</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -16372,12 +16528,12 @@
       <c r="D23" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36"/>
       <c r="B24" s="9" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>206</v>
@@ -16385,12 +16541,12 @@
       <c r="D24" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
       <c r="B25" s="9" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>206</v>
@@ -16398,12 +16554,12 @@
       <c r="D25" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="36"/>
       <c r="B26" s="9" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>206</v>
@@ -16411,12 +16567,12 @@
       <c r="D26" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="36"/>
       <c r="B27" s="9" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>206</v>
@@ -16424,12 +16580,12 @@
       <c r="D27" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
       <c r="B28" s="9" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>206</v>
@@ -16437,12 +16593,12 @@
       <c r="D28" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
       <c r="B29" s="9" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>85</v>
@@ -16452,9 +16608,9 @@
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A23:A29"/>
